--- a/Source/SourcePMS/PVS oppdat status.xlsx
+++ b/Source/SourcePMS/PVS oppdat status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\SourcePMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0DE81-DD68-440C-8A24-7B35046A52AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64E35B-6E1E-4722-BC98-3C63DCDF9808}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="3765" windowWidth="18735" windowHeight="11835" xr2:uid="{CAE8701F-9406-4F0A-BBA7-C3F793A0D34C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Forms</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>frmKomponentSpec</t>
+  </si>
+  <si>
+    <t>frmKompetanseTre</t>
   </si>
 </sst>
 </file>
@@ -431,16 +434,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD86A47-44CB-4E94-8C5E-CB7D0BA54B1D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,6 +504,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Source/SourcePMS/PVS oppdat status.xlsx
+++ b/Source/SourcePMS/PVS oppdat status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\SourcePMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64E35B-6E1E-4722-BC98-3C63DCDF9808}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3036684-96A1-4B7F-9F49-E0DEC60BBE16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="3765" windowWidth="18735" windowHeight="11835" xr2:uid="{CAE8701F-9406-4F0A-BBA7-C3F793A0D34C}"/>
+    <workbookView xWindow="12840" yWindow="3390" windowWidth="12435" windowHeight="10320" xr2:uid="{CAE8701F-9406-4F0A-BBA7-C3F793A0D34C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Forms</t>
   </si>
@@ -76,6 +76,45 @@
   </si>
   <si>
     <t>frmKompetanseTre</t>
+  </si>
+  <si>
+    <t>frmSertifikat</t>
+  </si>
+  <si>
+    <t>frmDokumenterScr</t>
+  </si>
+  <si>
+    <t>frmNormListe</t>
+  </si>
+  <si>
+    <t>frmNormScr subform</t>
+  </si>
+  <si>
+    <t>frmNormjobbScr subform</t>
+  </si>
+  <si>
+    <t>frmSjekklisteScr</t>
+  </si>
+  <si>
+    <t>frmSjekkPunktScr subform</t>
+  </si>
+  <si>
+    <t>frmGangetidScr</t>
+  </si>
+  <si>
+    <t>frmGangetidScr subform</t>
+  </si>
+  <si>
+    <t>frmDistanseScr</t>
+  </si>
+  <si>
+    <t>frmJobbScr subform</t>
+  </si>
+  <si>
+    <t>frmKomponerntJobbScr</t>
+  </si>
+  <si>
+    <t>frmKomponerntScr subform</t>
   </si>
 </sst>
 </file>
@@ -434,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD86A47-44CB-4E94-8C5E-CB7D0BA54B1D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +548,71 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
